--- a/r_map/data_egrid_emf_Se.xlsx
+++ b/r_map/data_egrid_emf_Se.xlsx
@@ -536,10 +536,10 @@
         <v>668.41271035757347</v>
       </c>
       <c r="C7">
-        <v>14.874809388910247</v>
+        <v>15.189750847731112</v>
       </c>
       <c r="D7">
-        <v>141.83638650066263</v>
+        <v>100.17598882564589</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -547,13 +547,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>938.00025302101585</v>
+        <v>934.28117161205375</v>
       </c>
       <c r="C8">
-        <v>6.7809769450033119</v>
+        <v>6.7767550804462431</v>
       </c>
       <c r="D8">
-        <v>29.839568243479732</v>
+        <v>29.939968633255702</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -589,13 +589,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>399.21329679629162</v>
+        <v>400.96605612938617</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>305.23866658462555</v>
+        <v>298.36643429843826</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -606,7 +606,7 @@
         <v>293.28125973309926</v>
       </c>
       <c r="C12">
-        <v>4.0446162348058978</v>
+        <v>4.0324464820337926</v>
       </c>
       <c r="D12">
         <v>254.16255870535807</v>
@@ -631,13 +631,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>309.84131351823504</v>
+        <v>311.65104485997654</v>
       </c>
       <c r="C14">
-        <v>4.654828305007868</v>
+        <v>4.7748521407735947</v>
       </c>
       <c r="D14">
-        <v>273.46126563885326</v>
+        <v>272.91209814458529</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -673,13 +673,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>538.45403898299332</v>
+        <v>544.54412748739139</v>
       </c>
       <c r="C17">
-        <v>6.6442163419882121</v>
+        <v>6.3335070509297644</v>
       </c>
       <c r="D17">
-        <v>147.66892375455615</v>
+        <v>146.80075309599914</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -687,13 +687,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>696.65853378531096</v>
+        <v>697.15118316968756</v>
       </c>
       <c r="C18">
-        <v>5.6704075329825052</v>
+        <v>5.6235897344244794</v>
       </c>
       <c r="D18">
-        <v>257.55495767810135</v>
+        <v>257.47396841752152</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -701,13 +701,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>325.44792313125345</v>
+        <v>325.86697558299119</v>
       </c>
       <c r="C19">
-        <v>5.7923319414184729</v>
+        <v>5.657098031755476</v>
       </c>
       <c r="D19">
-        <v>311.74754752169144</v>
+        <v>307.62401410233855</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -715,13 +715,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>978.45076566066041</v>
+        <v>977.47678316897623</v>
       </c>
       <c r="C20">
         <v>7.6391142963813348</v>
       </c>
       <c r="D20">
-        <v>34.254234944672334</v>
+        <v>33.963019779145448</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -743,13 +743,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>282.68549243953123</v>
+        <v>288.66070305670621</v>
       </c>
       <c r="C22">
-        <v>4.9400902644682807</v>
+        <v>5.147366779061354</v>
       </c>
       <c r="D22">
-        <v>295.45084377067082</v>
+        <v>296.81433292627588</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -757,13 +757,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>294.23936416492728</v>
+        <v>299.30872825103467</v>
       </c>
       <c r="C23">
-        <v>20.090947726133155</v>
+        <v>71.771215167368752</v>
       </c>
       <c r="D23">
-        <v>312.89399907252334</v>
+        <v>309.35380541730478</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -771,13 +771,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>296.21988671834811</v>
+        <v>294.58864206082256</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>328.88807978794762</v>
+        <v>325.70349688618541</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -785,13 +785,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>311.39847006020011</v>
+        <v>306.48138155677441</v>
       </c>
       <c r="C25">
         <v>7.2545388559003028</v>
       </c>
       <c r="D25">
-        <v>279.7466513539548</v>
+        <v>282.72343439148904</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -799,13 +799,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>558.76051914706466</v>
+        <v>560.00701044406674</v>
       </c>
       <c r="C26">
-        <v>7.3585344954095468</v>
+        <v>6.4941399270954774</v>
       </c>
       <c r="D26">
-        <v>37.273589057304406</v>
+        <v>34.911882587829709</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -813,13 +813,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1017.5772234221807</v>
+        <v>1022.5135422163627</v>
       </c>
       <c r="C27">
-        <v>7.7431918578901895</v>
+        <v>7.7603217921129533</v>
       </c>
       <c r="D27">
-        <v>34.591880927923583</v>
+        <v>34.5673561263864</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -827,13 +827,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1362.6120551246568</v>
+        <v>1361.3228648277591</v>
       </c>
       <c r="C28">
-        <v>11.848926138642838</v>
+        <v>10.586185228630633</v>
       </c>
       <c r="D28">
-        <v>49.749826026693711</v>
+        <v>48.397253329159533</v>
       </c>
     </row>
   </sheetData>

--- a/r_map/data_egrid_emf_Se.xlsx
+++ b/r_map/data_egrid_emf_Se.xlsx
@@ -536,10 +536,10 @@
         <v>668.41271035757347</v>
       </c>
       <c r="C7">
-        <v>15.189750847731112</v>
+        <v>15.058477850184744</v>
       </c>
       <c r="D7">
-        <v>100.17598882564589</v>
+        <v>138.6717582991117</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -547,13 +547,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>934.28117161205375</v>
+        <v>931.5472412119683</v>
       </c>
       <c r="C8">
-        <v>6.7767550804462431</v>
+        <v>6.7875746651481546</v>
       </c>
       <c r="D8">
-        <v>29.939968633255702</v>
+        <v>29.839568243479732</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -589,13 +589,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>400.96605612938617</v>
+        <v>397.70676373500299</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>298.36643429843826</v>
+        <v>301.38197300776301</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -606,7 +606,7 @@
         <v>293.28125973309926</v>
       </c>
       <c r="C12">
-        <v>4.0324464820337926</v>
+        <v>4.0878760483140084</v>
       </c>
       <c r="D12">
         <v>254.16255870535807</v>
@@ -631,13 +631,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>311.65104485997654</v>
+        <v>314.00566328762528</v>
       </c>
       <c r="C14">
-        <v>4.7748521407735947</v>
+        <v>4.6754703540978557</v>
       </c>
       <c r="D14">
-        <v>272.91209814458529</v>
+        <v>273.3793592273845</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -673,13 +673,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>544.54412748739139</v>
+        <v>538.45403898299332</v>
       </c>
       <c r="C17">
-        <v>6.3335070509297644</v>
+        <v>6.384756786916828</v>
       </c>
       <c r="D17">
-        <v>146.80075309599914</v>
+        <v>147.04411668022172</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -687,13 +687,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>697.15118316968756</v>
+        <v>695.66648675853958</v>
       </c>
       <c r="C18">
-        <v>5.6235897344244794</v>
+        <v>5.7005576276700198</v>
       </c>
       <c r="D18">
-        <v>257.47396841752152</v>
+        <v>257.73592117725241</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -701,13 +701,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>325.86697558299119</v>
+        <v>327.4277695687523</v>
       </c>
       <c r="C19">
-        <v>5.657098031755476</v>
+        <v>5.4641980804167591</v>
       </c>
       <c r="D19">
-        <v>307.62401410233855</v>
+        <v>307.9228474015506</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -715,13 +715,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>977.47678316897623</v>
+        <v>976.01382736066648</v>
       </c>
       <c r="C20">
-        <v>7.6391142963813348</v>
+        <v>7.6689062639641694</v>
       </c>
       <c r="D20">
-        <v>33.963019779145448</v>
+        <v>35.092278793694753</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -729,13 +729,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>434.85725046070593</v>
+        <v>436.60554443568412</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>234.15390409422622</v>
+        <v>235.09529315767605</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -746,10 +746,10 @@
         <v>288.66070305670621</v>
       </c>
       <c r="C22">
-        <v>5.147366779061354</v>
+        <v>5.0621892418420513</v>
       </c>
       <c r="D22">
-        <v>296.81433292627588</v>
+        <v>296.68077083850073</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -757,13 +757,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>299.30872825103467</v>
+        <v>299.3075272149797</v>
       </c>
       <c r="C23">
-        <v>71.771215167368752</v>
+        <v>20.090947726133155</v>
       </c>
       <c r="D23">
-        <v>309.35380541730478</v>
+        <v>308.5817064150242</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -771,13 +771,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>294.58864206082256</v>
+        <v>307.7470086895645</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>325.70349688618541</v>
+        <v>325.62832217178021</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -785,13 +785,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>306.48138155677441</v>
+        <v>304.46849709606175</v>
       </c>
       <c r="C25">
         <v>7.2545388559003028</v>
       </c>
       <c r="D25">
-        <v>282.72343439148904</v>
+        <v>279.4059583612929</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -799,13 +799,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>560.00701044406674</v>
+        <v>575.64301542973499</v>
       </c>
       <c r="C26">
-        <v>6.4941399270954774</v>
+        <v>6.5173519677279899</v>
       </c>
       <c r="D26">
-        <v>34.911882587829709</v>
+        <v>34.884575505260514</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -813,13 +813,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1022.5135422163627</v>
+        <v>1013.0934894050981</v>
       </c>
       <c r="C27">
-        <v>7.7603217921129533</v>
+        <v>7.7199524064238139</v>
       </c>
       <c r="D27">
-        <v>34.5673561263864</v>
+        <v>33.770465267492625</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -827,13 +827,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1361.3228648277591</v>
+        <v>1365.1523603800533</v>
       </c>
       <c r="C28">
-        <v>10.586185228630633</v>
+        <v>11.890056834598717</v>
       </c>
       <c r="D28">
-        <v>48.397253329159533</v>
+        <v>49.740982958699519</v>
       </c>
     </row>
   </sheetData>

--- a/r_map/data_egrid_emf_Se.xlsx
+++ b/r_map/data_egrid_emf_Se.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14985" windowHeight="6825"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19905" windowHeight="6810"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,9 +435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -461,85 +459,47 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>581.71667763057258</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>9.37152389365842</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>71.336529653564654</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>668.41271035757347</v>
+        <v>1481.2459527721019</v>
       </c>
       <c r="C7">
-        <v>15.058477850184744</v>
+        <v>8.9355307679654778</v>
       </c>
       <c r="D7">
-        <v>138.6717582991117</v>
+        <v>216.14615524129863</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -547,55 +507,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>931.5472412119683</v>
+        <v>926.96648857857485</v>
       </c>
       <c r="C8">
-        <v>6.7875746651481546</v>
+        <v>11.915308011847486</v>
       </c>
       <c r="D8">
-        <v>29.839568243479732</v>
+        <v>166.5283616205796</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>397.70676373500299</v>
+        <v>360.07685385388277</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>301.38197300776301</v>
+        <v>209.147062138102</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -603,83 +545,56 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>293.28125973309926</v>
+        <v>426.89615119692996</v>
       </c>
       <c r="C12">
-        <v>4.0878760483140084</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>254.16255870535807</v>
+        <v>181.0009148305198</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>314.00566328762528</v>
+        <v>524.03691033842938</v>
       </c>
       <c r="C14">
-        <v>4.6754703540978557</v>
+        <v>6.4953839331559511</v>
       </c>
       <c r="D14">
-        <v>273.3793592273845</v>
+        <v>49.37064404925345</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>538.45403898299332</v>
+        <v>521.63422561664117</v>
       </c>
       <c r="C17">
-        <v>6.384756786916828</v>
+        <v>3.9401938910513108</v>
       </c>
       <c r="D17">
-        <v>147.04411668022172</v>
+        <v>168.46487077844267</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -687,13 +602,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>695.66648675853958</v>
+        <v>719.34697608887632</v>
       </c>
       <c r="C18">
-        <v>5.7005576276700198</v>
+        <v>3.8481375907931366</v>
       </c>
       <c r="D18">
-        <v>257.73592117725241</v>
+        <v>110.33988468012224</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -701,13 +616,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>327.4277695687523</v>
+        <v>386.52174845250829</v>
       </c>
       <c r="C19">
-        <v>5.4641980804167591</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>307.9228474015506</v>
+        <v>241.98307329129304</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -715,13 +630,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>976.01382736066648</v>
+        <v>956.37655799275387</v>
       </c>
       <c r="C20">
-        <v>7.6689062639641694</v>
+        <v>13.891290815888048</v>
       </c>
       <c r="D20">
-        <v>35.092278793694753</v>
+        <v>71.196545953163593</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -729,13 +644,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>436.60554443568412</v>
+        <v>400.449468621535</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>235.09529315767605</v>
+        <v>224.05059710106119</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -743,13 +658,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>288.66070305670621</v>
+        <v>399.5435836117606</v>
       </c>
       <c r="C22">
-        <v>5.0621892418420513</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>296.68077083850073</v>
+        <v>215.04235918102626</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -757,13 +672,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>299.3075272149797</v>
+        <v>385.8961752070943</v>
       </c>
       <c r="C23">
-        <v>20.090947726133155</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>308.5817064150242</v>
+        <v>248.04596408008157</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -771,13 +686,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>307.7470086895645</v>
+        <v>370.25238895331245</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>325.62832217178021</v>
+        <v>259.01993733160361</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -785,13 +700,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>304.46849709606175</v>
+        <v>378.78789099852276</v>
       </c>
       <c r="C25">
-        <v>7.2545388559003028</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>279.4059583612929</v>
+        <v>216.75838487344981</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -799,13 +714,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>575.64301542973499</v>
+        <v>673.85843676530908</v>
       </c>
       <c r="C26">
-        <v>6.5173519677279899</v>
+        <v>12.533757321587807</v>
       </c>
       <c r="D26">
-        <v>34.884575505260514</v>
+        <v>137.10729282684588</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -813,13 +728,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1013.0934894050981</v>
+        <v>1049.6795339494079</v>
       </c>
       <c r="C27">
-        <v>7.7199524064238139</v>
+        <v>13.828836209725528</v>
       </c>
       <c r="D27">
-        <v>33.770465267492625</v>
+        <v>80.478181970815399</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -827,13 +742,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1365.1523603800533</v>
+        <v>1266.2631935861396</v>
       </c>
       <c r="C28">
-        <v>11.890056834598717</v>
+        <v>14.381239009481749</v>
       </c>
       <c r="D28">
-        <v>49.740982958699519</v>
+        <v>110.06301747337619</v>
       </c>
     </row>
   </sheetData>

--- a/r_map/data_egrid_emf_Se.xlsx
+++ b/r_map/data_egrid_emf_Se.xlsx
@@ -474,13 +474,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>581.71667763057258</v>
+        <v>580.50532224355379</v>
       </c>
       <c r="C5">
-        <v>9.37152389365842</v>
+        <v>9.3068926943918093</v>
       </c>
       <c r="D5">
-        <v>71.336529653564654</v>
+        <v>70.867488554029336</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -493,10 +493,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1481.2459527721019</v>
+        <v>1490.6151261202419</v>
       </c>
       <c r="C7">
-        <v>8.9355307679654778</v>
+        <v>8.9343719981487766</v>
       </c>
       <c r="D7">
         <v>216.14615524129863</v>
@@ -507,13 +507,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>926.96648857857485</v>
+        <v>927.44315655741389</v>
       </c>
       <c r="C8">
-        <v>11.915308011847486</v>
+        <v>11.732132683963624</v>
       </c>
       <c r="D8">
-        <v>166.5283616205796</v>
+        <v>162.46166697199496</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -531,13 +531,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>360.07685385388277</v>
+        <v>351.06068485152878</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>209.147062138102</v>
+        <v>210.86204638883373</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -545,13 +545,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>426.89615119692996</v>
+        <v>432.41164549458517</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>181.0009148305198</v>
+        <v>179.94861947503836</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -564,13 +564,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>524.03691033842938</v>
+        <v>527.91300437905579</v>
       </c>
       <c r="C14">
-        <v>6.4953839331559511</v>
+        <v>6.4847493837403682</v>
       </c>
       <c r="D14">
-        <v>49.37064404925345</v>
+        <v>50.467769472570197</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -588,13 +588,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>521.63422561664117</v>
+        <v>521.50110307385091</v>
       </c>
       <c r="C17">
-        <v>3.9401938910513108</v>
+        <v>4.1108949928782179</v>
       </c>
       <c r="D17">
-        <v>168.46487077844267</v>
+        <v>168.42384845518143</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -602,13 +602,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>719.34697608887632</v>
+        <v>711.99448681809326</v>
       </c>
       <c r="C18">
-        <v>3.8481375907931366</v>
+        <v>3.8846492643499761</v>
       </c>
       <c r="D18">
-        <v>110.33988468012224</v>
+        <v>110.24303429960459</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -616,13 +616,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>386.52174845250829</v>
+        <v>355.05525296766757</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>241.98307329129304</v>
+        <v>239.76070478080715</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -630,13 +630,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>956.37655799275387</v>
+        <v>958.71609887123418</v>
       </c>
       <c r="C20">
-        <v>13.891290815888048</v>
+        <v>13.70941693504064</v>
       </c>
       <c r="D20">
-        <v>71.196545953163593</v>
+        <v>71.940203442177179</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -644,7 +644,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>400.449468621535</v>
+        <v>388.13948223176465</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -658,13 +658,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>399.5435836117606</v>
+        <v>401.94178429995532</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>215.04235918102626</v>
+        <v>215.38428967248501</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -672,13 +672,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>385.8961752070943</v>
+        <v>376.73028859011436</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>248.04596408008157</v>
+        <v>245.37276990622675</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -686,13 +686,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>370.25238895331245</v>
+        <v>350.82560286422847</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>259.01993733160361</v>
+        <v>245.81792060202173</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -700,13 +700,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>378.78789099852276</v>
+        <v>349.90495929360804</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>216.75838487344981</v>
+        <v>212.90806822949787</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -714,13 +714,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>673.85843676530908</v>
+        <v>663.27883183403026</v>
       </c>
       <c r="C26">
-        <v>12.533757321587807</v>
+        <v>9.9758826732811254</v>
       </c>
       <c r="D26">
-        <v>137.10729282684588</v>
+        <v>102.83414237765939</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -728,13 +728,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1049.6795339494079</v>
+        <v>1021.5450896529127</v>
       </c>
       <c r="C27">
-        <v>13.828836209725528</v>
+        <v>12.358464535243575</v>
       </c>
       <c r="D27">
-        <v>80.478181970815399</v>
+        <v>66.381992731925493</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -742,13 +742,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1266.2631935861396</v>
+        <v>1264.0236147957798</v>
       </c>
       <c r="C28">
-        <v>14.381239009481749</v>
+        <v>14.263278763576519</v>
       </c>
       <c r="D28">
-        <v>110.06301747337619</v>
+        <v>106.71955488022718</v>
       </c>
     </row>
   </sheetData>

--- a/r_map/data_egrid_emf_Se.xlsx
+++ b/r_map/data_egrid_emf_Se.xlsx
@@ -474,13 +474,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>580.50532224355379</v>
+        <v>8.6913127284582892</v>
       </c>
       <c r="C5">
-        <v>9.3068926943918093</v>
+        <v>0.12517291953906468</v>
       </c>
       <c r="D5">
-        <v>70.867488554029336</v>
+        <v>0.83399408697976829</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -493,13 +493,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1490.6151261202419</v>
+        <v>133.7687712470339</v>
       </c>
       <c r="C7">
-        <v>8.9343719981487766</v>
+        <v>1.7543313225850714</v>
       </c>
       <c r="D7">
-        <v>216.14615524129863</v>
+        <v>15.253770345452764</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -507,13 +507,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>927.44315655741389</v>
+        <v>16.696310127304844</v>
       </c>
       <c r="C8">
-        <v>11.732132683963624</v>
+        <v>0.21469404025735703</v>
       </c>
       <c r="D8">
-        <v>162.46166697199496</v>
+        <v>2.2402968415264843</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -531,13 +531,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>351.06068485152878</v>
+        <v>26.553643778690738</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.40997341068083221</v>
       </c>
       <c r="D11">
-        <v>210.86204638883373</v>
+        <v>2.8961275578557197</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -545,13 +545,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>432.41164549458517</v>
+        <v>79.540450382533777</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.98099614412832647</v>
       </c>
       <c r="D12">
-        <v>179.94861947503836</v>
+        <v>13.873181445464581</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -564,13 +564,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>527.91300437905579</v>
+        <v>47.654684937898843</v>
       </c>
       <c r="C14">
-        <v>6.4847493837403682</v>
+        <v>0.51526071333377077</v>
       </c>
       <c r="D14">
-        <v>50.467769472570197</v>
+        <v>9.1892542195054574</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -588,13 +588,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>521.50110307385091</v>
+        <v>11.135655219222187</v>
       </c>
       <c r="C17">
-        <v>4.1108949928782179</v>
+        <v>0.10261313101997194</v>
       </c>
       <c r="D17">
-        <v>168.42384845518143</v>
+        <v>2.1552679183928332</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -602,13 +602,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>711.99448681809326</v>
+        <v>16.440372176267971</v>
       </c>
       <c r="C18">
-        <v>3.8846492643499761</v>
+        <v>0.11623681051361495</v>
       </c>
       <c r="D18">
-        <v>110.24303429960459</v>
+        <v>5.7578986024222276</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -616,13 +616,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>355.05525296766757</v>
+        <v>19.768970999658972</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.18916613913718447</v>
       </c>
       <c r="D19">
-        <v>239.76070478080715</v>
+        <v>5.6459004154887724</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -630,13 +630,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>958.71609887123418</v>
+        <v>189.72085903267197</v>
       </c>
       <c r="C20">
-        <v>13.70941693504064</v>
+        <v>2.3167091542985516</v>
       </c>
       <c r="D20">
-        <v>71.940203442177179</v>
+        <v>34.970047880861472</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -644,13 +644,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>388.13948223176465</v>
+        <v>33.406829799898354</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.37447281636917745</v>
       </c>
       <c r="D21">
-        <v>224.05059710106119</v>
+        <v>5.5676362236405073</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -658,13 +658,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>401.94178429995532</v>
+        <v>13.571450136632571</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.13045316333218349</v>
       </c>
       <c r="D22">
-        <v>215.38428967248501</v>
+        <v>2.9297302287598943</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -672,13 +672,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>376.73028859011436</v>
+        <v>56.120297353338721</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.83006082353211819</v>
       </c>
       <c r="D23">
-        <v>245.37276990622675</v>
+        <v>10.561868556765324</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -686,13 +686,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>350.82560286422847</v>
+        <v>10.768622743778128</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.16121572456643563</v>
       </c>
       <c r="D24">
-        <v>245.81792060202173</v>
+        <v>0.80816944073490404</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -700,13 +700,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>349.90495929360804</v>
+        <v>29.7244665396729</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.10673022586562905</v>
       </c>
       <c r="D25">
-        <v>212.90806822949787</v>
+        <v>11.323954593261602</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -714,13 +714,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>663.27883183403026</v>
+        <v>53.207981146109184</v>
       </c>
       <c r="C26">
-        <v>9.9758826732811254</v>
+        <v>0.90809870042147145</v>
       </c>
       <c r="D26">
-        <v>102.83414237765939</v>
+        <v>8.7311756167638421</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -728,13 +728,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1021.5450896529127</v>
+        <v>75.728951208085405</v>
       </c>
       <c r="C27">
-        <v>12.358464535243575</v>
+        <v>0.90367705953825728</v>
       </c>
       <c r="D27">
-        <v>66.381992731925493</v>
+        <v>9.8404284423735149</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -742,13 +742,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1264.0236147957798</v>
+        <v>47.62852356759921</v>
       </c>
       <c r="C28">
-        <v>14.263278763576519</v>
+        <v>0.4332630045433189</v>
       </c>
       <c r="D28">
-        <v>106.71955488022718</v>
+        <v>9.6523100024630093</v>
       </c>
     </row>
   </sheetData>

--- a/r_map/data_egrid_emf_Se.xlsx
+++ b/r_map/data_egrid_emf_Se.xlsx
@@ -474,13 +474,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.6913127284582892</v>
+        <v>9.0041358347757221</v>
       </c>
       <c r="C5">
-        <v>0.12517291953906468</v>
+        <v>0.12563563216551116</v>
       </c>
       <c r="D5">
-        <v>0.83399408697976829</v>
+        <v>0.54347477409543132</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -493,13 +493,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>133.7687712470339</v>
+        <v>132.88997967726823</v>
       </c>
       <c r="C7">
-        <v>1.7543313225850714</v>
+        <v>1.742506663903308</v>
       </c>
       <c r="D7">
-        <v>15.253770345452764</v>
+        <v>15.055734666711901</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -507,13 +507,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.696310127304844</v>
+        <v>17.054849797075565</v>
       </c>
       <c r="C8">
-        <v>0.21469404025735703</v>
+        <v>0.21704325294617927</v>
       </c>
       <c r="D8">
-        <v>2.2402968415264843</v>
+        <v>1.95933904384859</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -531,13 +531,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.553643778690738</v>
+        <v>26.659575937880646</v>
       </c>
       <c r="C11">
-        <v>0.40997341068083221</v>
+        <v>0.41665447219732266</v>
       </c>
       <c r="D11">
-        <v>2.8961275578557197</v>
+        <v>3.0457542656483318</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -545,13 +545,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>79.540450382533777</v>
+        <v>83.881431879335409</v>
       </c>
       <c r="C12">
-        <v>0.98099614412832647</v>
+        <v>0.97749727499995032</v>
       </c>
       <c r="D12">
-        <v>13.873181445464581</v>
+        <v>9.9038302145521744</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -564,13 +564,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>47.654684937898843</v>
+        <v>52.666179842708004</v>
       </c>
       <c r="C14">
-        <v>0.51526071333377077</v>
+        <v>0.51748750223743067</v>
       </c>
       <c r="D14">
-        <v>9.1892542195054574</v>
+        <v>4.3553138239202713</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -588,13 +588,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.135655219222187</v>
+        <v>11.13437556033443</v>
       </c>
       <c r="C17">
-        <v>0.10261313101997194</v>
+        <v>0.10263748338607029</v>
       </c>
       <c r="D17">
-        <v>2.1552679183928332</v>
+        <v>2.1591959999100103</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -602,13 +602,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.440372176267971</v>
+        <v>16.576329485136437</v>
       </c>
       <c r="C18">
-        <v>0.11623681051361495</v>
+        <v>0.11728297448589098</v>
       </c>
       <c r="D18">
-        <v>5.7578986024222276</v>
+        <v>5.7587887811106704</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -616,13 +616,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.768970999658972</v>
+        <v>19.585002870505168</v>
       </c>
       <c r="C19">
-        <v>0.18916613913718447</v>
+        <v>0.18799400632411323</v>
       </c>
       <c r="D19">
-        <v>5.6459004154887724</v>
+        <v>5.6253163195718612</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -630,13 +630,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>189.72085903267197</v>
+        <v>192.82014174534626</v>
       </c>
       <c r="C20">
-        <v>2.3167091542985516</v>
+        <v>2.3140534293621355</v>
       </c>
       <c r="D20">
-        <v>34.970047880861472</v>
+        <v>31.50922347535743</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -644,13 +644,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.406829799898354</v>
+        <v>37.087661257766413</v>
       </c>
       <c r="C21">
-        <v>0.37447281636917745</v>
+        <v>0.37316632176743458</v>
       </c>
       <c r="D21">
-        <v>5.5676362236405073</v>
+        <v>1.9471858163849149</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -658,13 +658,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.571450136632571</v>
+        <v>14.704178165756602</v>
       </c>
       <c r="C22">
-        <v>0.13045316333218349</v>
+        <v>0.13080587750607903</v>
       </c>
       <c r="D22">
-        <v>2.9297302287598943</v>
+        <v>1.8191559081187305</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -672,13 +672,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>56.120297353338721</v>
+        <v>57.106349704631263</v>
       </c>
       <c r="C23">
-        <v>0.83006082353211819</v>
+        <v>0.82693235327057091</v>
       </c>
       <c r="D23">
-        <v>10.561868556765324</v>
+        <v>9.4064364780503258</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -686,13 +686,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.768622743778128</v>
+        <v>10.81385605631765</v>
       </c>
       <c r="C24">
-        <v>0.16121572456643563</v>
+        <v>0.16358387307052322</v>
       </c>
       <c r="D24">
-        <v>0.80816944073490404</v>
+        <v>0.81741486618800807</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -700,13 +700,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.7244665396729</v>
+        <v>30.822599874897325</v>
       </c>
       <c r="C25">
-        <v>0.10673022586562905</v>
+        <v>0.10629683478182325</v>
       </c>
       <c r="D25">
-        <v>11.323954593261602</v>
+        <v>10.281834652439738</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -714,13 +714,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>53.207981146109184</v>
+        <v>54.729106705965449</v>
       </c>
       <c r="C26">
-        <v>0.90809870042147145</v>
+        <v>0.90773896503553464</v>
       </c>
       <c r="D26">
-        <v>8.7311756167638421</v>
+        <v>7.205826387755895</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -728,13 +728,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>75.728951208085405</v>
+        <v>76.435639977634494</v>
       </c>
       <c r="C27">
-        <v>0.90367705953825728</v>
+        <v>0.90302190059555987</v>
       </c>
       <c r="D27">
-        <v>9.8404284423735149</v>
+        <v>9.1485684220269707</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -742,13 +742,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>47.62852356759921</v>
+        <v>50.862368176737739</v>
       </c>
       <c r="C28">
-        <v>0.4332630045433189</v>
+        <v>0.43399496376442942</v>
       </c>
       <c r="D28">
-        <v>9.6523100024630093</v>
+        <v>6.4590061420527585</v>
       </c>
     </row>
   </sheetData>

--- a/r_map/data_egrid_emf_Se.xlsx
+++ b/r_map/data_egrid_emf_Se.xlsx
@@ -474,13 +474,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.0041358347757221</v>
+        <v>8.9765365930052372</v>
       </c>
       <c r="C5">
-        <v>0.12563563216551116</v>
+        <v>0.12547388901598394</v>
       </c>
       <c r="D5">
-        <v>0.54347477409543132</v>
+        <v>0.54115727430408356</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -493,13 +493,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>132.88997967726823</v>
+        <v>133.56744230503554</v>
       </c>
       <c r="C7">
-        <v>1.742506663903308</v>
+        <v>1.7479545256236488</v>
       </c>
       <c r="D7">
-        <v>15.055734666711901</v>
+        <v>15.127369969283384</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -507,13 +507,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.054849797075565</v>
+        <v>16.930480369719927</v>
       </c>
       <c r="C8">
-        <v>0.21704325294617927</v>
+        <v>0.21705873415793656</v>
       </c>
       <c r="D8">
-        <v>1.95933904384859</v>
+        <v>1.9497855105356285</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -531,13 +531,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.659575937880646</v>
+        <v>26.553493325286336</v>
       </c>
       <c r="C11">
-        <v>0.41665447219732266</v>
+        <v>0.40966609969787399</v>
       </c>
       <c r="D11">
-        <v>3.0457542656483318</v>
+        <v>2.886306943695141</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -545,13 +545,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>83.881431879335409</v>
+        <v>83.84057987725366</v>
       </c>
       <c r="C12">
-        <v>0.97749727499995032</v>
+        <v>0.97500462897211038</v>
       </c>
       <c r="D12">
-        <v>9.9038302145521744</v>
+        <v>9.8892494991450945</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -564,13 +564,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>52.666179842708004</v>
+        <v>52.567424193058606</v>
       </c>
       <c r="C14">
-        <v>0.51748750223743067</v>
+        <v>0.51464515846117276</v>
       </c>
       <c r="D14">
-        <v>4.3553138239202713</v>
+        <v>4.330391913346479</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -588,13 +588,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.13437556033443</v>
+        <v>11.151455677570697</v>
       </c>
       <c r="C17">
-        <v>0.10263748338607029</v>
+        <v>0.10308033557842679</v>
       </c>
       <c r="D17">
-        <v>2.1591959999100103</v>
+        <v>2.1456047502990248</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -602,13 +602,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.576329485136437</v>
+        <v>16.569595086914074</v>
       </c>
       <c r="C18">
-        <v>0.11728297448589098</v>
+        <v>0.1160539407201957</v>
       </c>
       <c r="D18">
-        <v>5.7587887811106704</v>
+        <v>5.7085100282054677</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -616,13 +616,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.585002870505168</v>
+        <v>19.674251497820549</v>
       </c>
       <c r="C19">
-        <v>0.18799400632411323</v>
+        <v>0.18806956991621085</v>
       </c>
       <c r="D19">
-        <v>5.6253163195718612</v>
+        <v>5.6203248931339909</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -630,13 +630,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>192.82014174534626</v>
+        <v>192.90383952728445</v>
       </c>
       <c r="C20">
-        <v>2.3140534293621355</v>
+        <v>2.3158259168389383</v>
       </c>
       <c r="D20">
-        <v>31.50922347535743</v>
+        <v>31.561503970055707</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -644,13 +644,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>37.087661257766413</v>
+        <v>37.318171949549381</v>
       </c>
       <c r="C21">
-        <v>0.37316632176743458</v>
+        <v>0.37469751323425876</v>
       </c>
       <c r="D21">
-        <v>1.9471858163849149</v>
+        <v>1.9565750417516437</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -658,13 +658,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.704178165756602</v>
+        <v>14.744920967796926</v>
       </c>
       <c r="C22">
-        <v>0.13080587750607903</v>
+        <v>0.13086494193995291</v>
       </c>
       <c r="D22">
-        <v>1.8191559081187305</v>
+        <v>1.825537126535006</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -672,13 +672,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>57.106349704631263</v>
+        <v>57.415276521871924</v>
       </c>
       <c r="C23">
-        <v>0.82693235327057091</v>
+        <v>0.8358872055547717</v>
       </c>
       <c r="D23">
-        <v>9.4064364780503258</v>
+        <v>9.3834857689038067</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -686,13 +686,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.81385605631765</v>
+        <v>10.71494936093238</v>
       </c>
       <c r="C24">
-        <v>0.16358387307052322</v>
+        <v>0.16172053508639397</v>
       </c>
       <c r="D24">
-        <v>0.81741486618800807</v>
+        <v>0.81043870275297347</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -700,13 +700,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>30.822599874897325</v>
+        <v>30.705117562064633</v>
       </c>
       <c r="C25">
-        <v>0.10629683478182325</v>
+        <v>0.1072763223178545</v>
       </c>
       <c r="D25">
-        <v>10.281834652439738</v>
+        <v>10.244718909896983</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -714,13 +714,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>54.729106705965449</v>
+        <v>54.63355775188014</v>
       </c>
       <c r="C26">
-        <v>0.90773896503553464</v>
+        <v>0.90719342744818043</v>
       </c>
       <c r="D26">
-        <v>7.205826387755895</v>
+        <v>7.2340881548668969</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -728,13 +728,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>76.435639977634494</v>
+        <v>76.5749533337125</v>
       </c>
       <c r="C27">
-        <v>0.90302190059555987</v>
+        <v>0.90265437128624515</v>
       </c>
       <c r="D27">
-        <v>9.1485684220269707</v>
+        <v>9.1361400012095579</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -742,13 +742,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>50.862368176737739</v>
+        <v>51.046000514598582</v>
       </c>
       <c r="C28">
-        <v>0.43399496376442942</v>
+        <v>0.43378526977865395</v>
       </c>
       <c r="D28">
-        <v>6.4590061420527585</v>
+        <v>6.5533922045271842</v>
       </c>
     </row>
   </sheetData>
